--- a/Admin/Excel/department.xlsx
+++ b/Admin/Excel/department.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CSPIT-CE\SEM-4\SGP\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Spoural_Managment_System\Admin\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A655C8-5622-4040-8203-171705DC5445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66FC6E-FC97-4DDC-913F-17FE8C231BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{737C3CFC-0D7F-4A2E-9011-5DDD9F99B082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{737C3CFC-0D7F-4A2E-9011-5DDD9F99B082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>IIIM</t>
   </si>
   <si>
-    <t>CMPICA-BSCIT</t>
-  </si>
-  <si>
     <t>CSPIT-AIML</t>
   </si>
   <si>
@@ -85,6 +82,21 @@
   </si>
   <si>
     <t>dept_name</t>
+  </si>
+  <si>
+    <t>PDPIAS</t>
+  </si>
+  <si>
+    <t>CSPIT-ME</t>
+  </si>
+  <si>
+    <t>CSPIT-CL</t>
+  </si>
+  <si>
+    <t>CSPIT-EC</t>
+  </si>
+  <si>
+    <t>CSPIT-EE</t>
   </si>
 </sst>
 </file>
@@ -120,9 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8CD7FC-40BB-4332-8F4F-049B0A6C485C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,17 +468,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -479,7 +494,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -487,7 +502,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -511,7 +526,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -519,7 +534,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -543,7 +558,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -559,8 +574,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -568,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -576,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +615,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
